--- a/data/tracks_filtered/muddyfoot/muddyfoot_temporal_gaps_summary.xlsx
+++ b/data/tracks_filtered/muddyfoot/muddyfoot_temporal_gaps_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t xml:space="preserve">Individual_ID</t>
   </si>
@@ -555,15 +555,6 @@
   </si>
   <si>
     <t xml:space="preserve">2022-10-14 16:33:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-25 12:44:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-25 16:56:14</t>
   </si>
   <si>
     <t xml:space="preserve">F59744</t>
@@ -2387,7 +2378,7 @@
         <v>181</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>44829</v>
+        <v>44846</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>182</v>
@@ -2396,13 +2387,13 @@
         <v>183</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>251.9</v>
+        <v>227.2</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>4.2</v>
+        <v>3.79</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="61">
@@ -2410,7 +2401,7 @@
         <v>184</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>44846</v>
+        <v>44839</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>185</v>
@@ -2419,10 +2410,10 @@
         <v>186</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>227.2</v>
+        <v>223.3</v>
       </c>
       <c r="F61" s="4" t="n">
-        <v>3.79</v>
+        <v>3.72</v>
       </c>
       <c r="G61" s="4" t="n">
         <v>0.16</v>
@@ -2433,7 +2424,7 @@
         <v>187</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>44839</v>
+        <v>44836</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>188</v>
@@ -2442,13 +2433,13 @@
         <v>189</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>223.3</v>
+        <v>209</v>
       </c>
       <c r="F62" s="4" t="n">
-        <v>3.72</v>
+        <v>3.48</v>
       </c>
       <c r="G62" s="4" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="63">
@@ -2456,7 +2447,7 @@
         <v>190</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>44836</v>
+        <v>44855</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>191</v>
@@ -2465,13 +2456,13 @@
         <v>192</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>209</v>
+        <v>102.9</v>
       </c>
       <c r="F63" s="4" t="n">
-        <v>3.48</v>
+        <v>1.72</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>0.15</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="64">
@@ -2479,7 +2470,7 @@
         <v>193</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>44855</v>
+        <v>44835</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>194</v>
@@ -2488,10 +2479,10 @@
         <v>195</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>102.9</v>
+        <v>102.1</v>
       </c>
       <c r="F64" s="4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G64" s="4" t="n">
         <v>0.07</v>
@@ -2502,7 +2493,7 @@
         <v>196</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>44835</v>
+        <v>44859</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>197</v>
@@ -2511,35 +2502,12 @@
         <v>198</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>102.1</v>
+        <v>61.7</v>
       </c>
       <c r="F65" s="4" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B66" s="3" t="n">
-        <v>44859</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" s="4" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="F66" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G66" s="4" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/data/tracks_filtered/muddyfoot/muddyfoot_temporal_gaps_summary.xlsx
+++ b/data/tracks_filtered/muddyfoot/muddyfoot_temporal_gaps_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t xml:space="preserve">Individual_ID</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">F59699</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-05 12:38:16</t>
+    <t xml:space="preserve">2022-10-05 12:38:06</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-13 14:44:00</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">F59733</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-08 17:56:49</t>
+    <t xml:space="preserve">2022-10-08 17:56:39</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-14 16:46:18</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">F59746</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-22 07:48:41</t>
+    <t xml:space="preserve">2022-10-22 07:48:35</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-26 22:03:21</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">F59726</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-20 07:09:54</t>
+    <t xml:space="preserve">2022-10-20 07:09:30</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-22 09:38:17</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">F59692</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-20 10:26:19</t>
+    <t xml:space="preserve">2022-10-20 10:26:05</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-21 07:02:50</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">F59727</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-26 16:15:41</t>
+    <t xml:space="preserve">2022-10-26 16:15:35</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-27 07:14:00</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">F59704</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-15 10:18:53</t>
+    <t xml:space="preserve">2022-10-15 10:18:41</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-16 00:53:59</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">F59702</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-26 17:21:53</t>
+    <t xml:space="preserve">2022-10-26 17:21:31</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-27 07:21:45</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">F59705</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-27 18:26:41</t>
+    <t xml:space="preserve">2022-10-27 18:26:35</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-28 04:09:42</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">F59881</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-20 23:53:21</t>
+    <t xml:space="preserve">2022-10-20 23:53:05</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-21 08:52:14</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">F59738</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-18 19:33:50</t>
+    <t xml:space="preserve">2022-10-18 19:33:44</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-19 04:28:05</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">F59713</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-21 09:19:51</t>
+    <t xml:space="preserve">2022-10-21 09:19:32</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-21 17:22:23</t>
@@ -551,16 +551,25 @@
     <t xml:space="preserve">F59695</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-14 11:52:22</t>
+    <t xml:space="preserve">2022-10-14 11:52:05</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-14 16:33:02</t>
   </si>
   <si>
+    <t xml:space="preserve">F59707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-25 12:44:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-25 16:56:14</t>
+  </si>
+  <si>
     <t xml:space="preserve">F59744</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-12 12:55:46</t>
+    <t xml:space="preserve">2022-10-12 12:55:34</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-12 16:42:55</t>
@@ -578,7 +587,7 @@
     <t xml:space="preserve">F59698</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-10-02 22:46:43</t>
+    <t xml:space="preserve">2022-10-02 22:46:35</t>
   </si>
   <si>
     <t xml:space="preserve">2022-10-03 02:15:46</t>
@@ -616,7 +625,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -630,18 +639,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <b/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,36 +653,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4F81BD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4F81BD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4F81BD"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -699,19 +683,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,1497 +995,1520 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="3" t="n">
         <v>44839</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>11645.7</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="E2" s="3" t="n">
+        <v>11645.9</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>194.1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="3" t="n">
         <v>8.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="3" t="n">
         <v>44842</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>8569.5</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>142.82</v>
-      </c>
-      <c r="G3" s="5" t="n">
+      <c r="E3" s="3" t="n">
+        <v>8569.7</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>142.83</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>5.95</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="3" t="n">
         <v>44857</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="3" t="n">
         <v>7705.7</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="3" t="n">
         <v>128.43</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="3" t="n">
         <v>5.35</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="3" t="n">
         <v>44856</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>6614.7</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>110.24</v>
-      </c>
-      <c r="G5" s="5" t="n">
+      <c r="E5" s="3" t="n">
+        <v>6614.8</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>110.25</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>4.59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="3" t="n">
         <v>44855</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="3" t="n">
         <v>5087.7</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="3" t="n">
         <v>84.79</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="3" t="n">
         <v>3.53</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="3" t="n">
         <v>4985.1</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="3" t="n">
         <v>83.08</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="3" t="n">
         <v>3.46</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="3" t="n">
         <v>44843</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="3" t="n">
         <v>3488.7</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="3" t="n">
         <v>58.15</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="3" t="n">
         <v>2.42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="3" t="n">
         <v>44860</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="3" t="n">
         <v>3417.7</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="3" t="n">
         <v>56.96</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="3" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="3" t="n">
         <v>44856</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="3" t="n">
         <v>3033</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="3" t="n">
         <v>50.55</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="3" t="n">
         <v>2.11</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="3" t="n">
         <v>44854</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <v>3028.4</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="G11" s="5" t="n">
+      <c r="E11" s="3" t="n">
+        <v>3028.8</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="G11" s="3" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="3" t="n">
         <v>44842</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="3" t="n">
         <v>2851.1</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="3" t="n">
         <v>47.52</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="3" t="n">
         <v>1.98</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="3" t="n">
         <v>44846</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="3" t="n">
         <v>2714.9</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="3" t="n">
         <v>45.25</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="3" t="n">
         <v>1.89</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="3" t="n">
         <v>44852</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="3" t="n">
         <v>2466.8</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="3" t="n">
         <v>41.11</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="3" t="n">
         <v>1.71</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="3" t="n">
         <v>2356</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="3" t="n">
         <v>39.27</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="3" t="n">
         <v>1.64</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="3" t="n">
         <v>44852</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="3" t="n">
         <v>2319.3</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="3" t="n">
         <v>38.66</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="3" t="n">
         <v>1.61</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="3" t="n">
         <v>2114</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="3" t="n">
         <v>35.23</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="3" t="n">
         <v>1.47</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="3" t="n">
         <v>44860</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="3" t="n">
         <v>2005.6</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="3" t="n">
         <v>33.43</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="3" t="n">
         <v>1.39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="3" t="n">
         <v>1995.9</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="3" t="n">
         <v>33.26</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="3" t="n">
         <v>1.39</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="3" t="n">
         <v>44835</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="3" t="n">
         <v>1993.2</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="3" t="n">
         <v>33.22</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="3" t="n">
         <v>1.38</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="3" t="n">
         <v>44841</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="3" t="n">
         <v>1531</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="3" t="n">
         <v>25.52</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="3" t="n">
         <v>1.06</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="3" t="n">
         <v>44847</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="3" t="n">
         <v>1501.9</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="3" t="n">
         <v>25.03</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="3" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="3" t="n">
         <v>44843</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="3" t="n">
         <v>1446.9</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="3" t="n">
         <v>24.12</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="3" t="n">
         <v>44860</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="3" t="n">
         <v>1443.2</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="3" t="n">
         <v>24.05</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="1" t="n">
         <v>44843</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="2" t="n">
         <v>1416.9</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="2" t="n">
         <v>23.62</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="2" t="n">
         <v>0.98</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="1" t="n">
         <v>44854</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="4" t="n">
-        <v>1236.5</v>
-      </c>
-      <c r="F26" s="4" t="n">
+      <c r="E26" s="2" t="n">
+        <v>1236.8</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>20.61</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="2" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="1" t="n">
         <v>44841</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="2" t="n">
         <v>1038.9</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="2" t="n">
         <v>17.32</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="2" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="1" t="n">
         <v>44860</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="2" t="n">
         <v>965.1</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="2" t="n">
         <v>16.08</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="2" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="1" t="n">
         <v>44841</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="2" t="n">
         <v>915</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="2" t="n">
         <v>15.25</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="2" t="n">
         <v>0.64</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="1" t="n">
         <v>44841</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="2" t="n">
         <v>911.9</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="2" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="1" t="n">
         <v>44862</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="2" t="n">
         <v>905.1</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="2" t="n">
         <v>15.09</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="2" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="1" t="n">
         <v>44860</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="4" t="n">
-        <v>898.3</v>
-      </c>
-      <c r="F32" s="4" t="n">
+      <c r="E32" s="2" t="n">
+        <v>898.4</v>
+      </c>
+      <c r="F32" s="2" t="n">
         <v>14.97</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="2" t="n">
         <v>0.62</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="1" t="n">
         <v>44849</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="4" t="n">
-        <v>875.1</v>
-      </c>
-      <c r="F33" s="4" t="n">
+      <c r="E33" s="2" t="n">
+        <v>875.3</v>
+      </c>
+      <c r="F33" s="2" t="n">
         <v>14.59</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="2" t="n">
         <v>0.61</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="1" t="n">
         <v>44860</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="4" t="n">
-        <v>839.9</v>
-      </c>
-      <c r="F34" s="4" t="n">
+      <c r="E34" s="2" t="n">
+        <v>840.2</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="2" t="n">
         <v>0.58</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="1" t="n">
         <v>44843</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="2" t="n">
         <v>833.1</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="2" t="n">
         <v>13.88</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="2" t="n">
         <v>0.58</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="1" t="n">
         <v>44829</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="2" t="n">
         <v>830.8</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="2" t="n">
         <v>13.85</v>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="2" t="n">
         <v>0.58</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="1" t="n">
         <v>44855</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="2" t="n">
         <v>819.5</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="2" t="n">
         <v>13.66</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="2" t="n">
         <v>0.57</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="1" t="n">
         <v>44846</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="2" t="n">
         <v>692.8</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="2" t="n">
         <v>11.55</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="2" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="1" t="n">
         <v>44832</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="2" t="n">
         <v>667.5</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="2" t="n">
         <v>11.13</v>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="G39" s="2" t="n">
         <v>0.46</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="1" t="n">
         <v>44836</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="2" t="n">
         <v>646.6</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="2" t="n">
         <v>10.78</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="G40" s="2" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="1" t="n">
         <v>44851</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="2" t="n">
         <v>646.2</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="2" t="n">
         <v>10.77</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="G41" s="2" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="1" t="n">
         <v>44833</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="2" t="n">
         <v>645.1</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="2" t="n">
         <v>10.75</v>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="G42" s="2" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="1" t="n">
         <v>44832</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="2" t="n">
         <v>620.6</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="2" t="n">
         <v>10.34</v>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="G43" s="2" t="n">
         <v>0.43</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="1" t="n">
         <v>44841</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="2" t="n">
         <v>614.5</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" s="2" t="n">
         <v>10.24</v>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="G44" s="2" t="n">
         <v>0.43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="1" t="n">
         <v>44861</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="4" t="n">
-        <v>583</v>
-      </c>
-      <c r="F45" s="4" t="n">
+      <c r="E45" s="2" t="n">
+        <v>583.1</v>
+      </c>
+      <c r="F45" s="2" t="n">
         <v>9.72</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="G45" s="2" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="1" t="n">
         <v>44850</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="4" t="n">
+      <c r="E46" s="2" t="n">
         <v>550.8</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="F46" s="2" t="n">
         <v>9.18</v>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="G46" s="2" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="1" t="n">
         <v>44835</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="4" t="n">
+      <c r="E47" s="2" t="n">
         <v>549</v>
       </c>
-      <c r="F47" s="4" t="n">
+      <c r="F47" s="2" t="n">
         <v>9.15</v>
       </c>
-      <c r="G47" s="4" t="n">
+      <c r="G47" s="2" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="1" t="n">
         <v>44829</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="4" t="n">
+      <c r="E48" s="2" t="n">
         <v>545.3</v>
       </c>
-      <c r="F48" s="4" t="n">
+      <c r="F48" s="2" t="n">
         <v>9.09</v>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="G48" s="2" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="1" t="n">
         <v>44854</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="4" t="n">
-        <v>538.9</v>
-      </c>
-      <c r="F49" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="G49" s="4" t="n">
+      <c r="E49" s="2" t="n">
+        <v>539.1</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G49" s="2" t="n">
         <v>0.37</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="1" t="n">
         <v>44852</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="4" t="n">
-        <v>534.3</v>
-      </c>
-      <c r="F50" s="4" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="G50" s="4" t="n">
+      <c r="E50" s="2" t="n">
+        <v>534.4</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="G50" s="2" t="n">
         <v>0.37</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="1" t="n">
         <v>44856</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="4" t="n">
+      <c r="E51" s="2" t="n">
         <v>518.9</v>
       </c>
-      <c r="F51" s="4" t="n">
+      <c r="F51" s="2" t="n">
         <v>8.65</v>
       </c>
-      <c r="G51" s="4" t="n">
+      <c r="G51" s="2" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="1" t="n">
         <v>44858</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" t="s">
         <v>159</v>
       </c>
-      <c r="E52" s="4" t="n">
+      <c r="E52" s="2" t="n">
         <v>485.1</v>
       </c>
-      <c r="F52" s="4" t="n">
+      <c r="F52" s="2" t="n">
         <v>8.09</v>
       </c>
-      <c r="G52" s="4" t="n">
+      <c r="G52" s="2" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="1" t="n">
         <v>44855</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="4" t="n">
-        <v>482.5</v>
-      </c>
-      <c r="F53" s="4" t="n">
-        <v>8.04</v>
-      </c>
-      <c r="G53" s="4" t="n">
+      <c r="E53" s="2" t="n">
+        <v>482.8</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>8.05</v>
+      </c>
+      <c r="G53" s="2" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="1" t="n">
         <v>44829</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="4" t="n">
+      <c r="E54" s="2" t="n">
         <v>477.6</v>
       </c>
-      <c r="F54" s="4" t="n">
+      <c r="F54" s="2" t="n">
         <v>7.96</v>
       </c>
-      <c r="G54" s="4" t="n">
+      <c r="G54" s="2" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="1" t="n">
         <v>44842</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="4" t="n">
+      <c r="E55" s="2" t="n">
         <v>322.6</v>
       </c>
-      <c r="F55" s="4" t="n">
+      <c r="F55" s="2" t="n">
         <v>5.38</v>
       </c>
-      <c r="G55" s="4" t="n">
+      <c r="G55" s="2" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="1" t="n">
         <v>44834</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="4" t="n">
+      <c r="E56" s="2" t="n">
         <v>320.8</v>
       </c>
-      <c r="F56" s="4" t="n">
+      <c r="F56" s="2" t="n">
         <v>5.35</v>
       </c>
-      <c r="G56" s="4" t="n">
+      <c r="G56" s="2" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="1" t="n">
         <v>44848</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="4" t="n">
+      <c r="E57" s="2" t="n">
         <v>303.8</v>
       </c>
-      <c r="F57" s="4" t="n">
+      <c r="F57" s="2" t="n">
         <v>5.06</v>
       </c>
-      <c r="G57" s="4" t="n">
+      <c r="G57" s="2" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="1" t="n">
         <v>44839</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="4" t="n">
+      <c r="E58" s="2" t="n">
         <v>301.3</v>
       </c>
-      <c r="F58" s="4" t="n">
+      <c r="F58" s="2" t="n">
         <v>5.02</v>
       </c>
-      <c r="G58" s="4" t="n">
+      <c r="G58" s="2" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="1" t="n">
         <v>44848</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" t="s">
         <v>180</v>
       </c>
-      <c r="E59" s="4" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="F59" s="4" t="n">
+      <c r="E59" s="2" t="n">
+        <v>280.9</v>
+      </c>
+      <c r="F59" s="2" t="n">
         <v>4.68</v>
       </c>
-      <c r="G59" s="4" t="n">
-        <v>0.19</v>
+      <c r="G59" s="2" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>181</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="1" t="n">
+        <v>44829</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="1" t="n">
         <v>44846</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>227.2</v>
-      </c>
-      <c r="F60" s="4" t="n">
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="F61" s="2" t="n">
         <v>3.79</v>
       </c>
-      <c r="G60" s="4" t="n">
+      <c r="G61" s="2" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="3" t="n">
+    <row r="62">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="1" t="n">
         <v>44839</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="4" t="n">
+      <c r="C62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="2" t="n">
         <v>223.3</v>
       </c>
-      <c r="F61" s="4" t="n">
+      <c r="F62" s="2" t="n">
         <v>3.72</v>
       </c>
-      <c r="G61" s="4" t="n">
+      <c r="G62" s="2" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="3" t="n">
+    <row r="63">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="1" t="n">
         <v>44836</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="4" t="n">
-        <v>209</v>
-      </c>
-      <c r="F62" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="G62" s="4" t="n">
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G63" s="2" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="3" t="n">
+    <row r="64">
+      <c r="A64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="1" t="n">
         <v>44855</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E63" s="4" t="n">
+      <c r="C64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" s="2" t="n">
         <v>102.9</v>
       </c>
-      <c r="F63" s="4" t="n">
+      <c r="F64" s="2" t="n">
         <v>1.72</v>
       </c>
-      <c r="G63" s="4" t="n">
+      <c r="G64" s="2" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="3" t="n">
+    <row r="65">
+      <c r="A65" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="1" t="n">
         <v>44835</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E64" s="4" t="n">
+      <c r="C65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="2" t="n">
         <v>102.1</v>
       </c>
-      <c r="F64" s="4" t="n">
+      <c r="F65" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="G64" s="4" t="n">
+      <c r="G65" s="2" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="3" t="n">
+    <row r="66">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="1" t="n">
         <v>44859</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="4" t="n">
+      <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="2" t="n">
         <v>61.7</v>
       </c>
-      <c r="F65" s="4" t="n">
+      <c r="F66" s="2" t="n">
         <v>1.03</v>
       </c>
-      <c r="G65" s="4" t="n">
+      <c r="G66" s="2" t="n">
         <v>0.04</v>
       </c>
     </row>
